--- a/tests/data/sensitivities/config/design_input_example1.xlsx
+++ b/tests/data/sensitivities/config/design_input_example1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,7 +120,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>For case sensitivitiesprovide names for case1 and case2 and values. Values can be string</t>
+          <t>For scenario sensitivities provide names for case1 and case2 and values. Values can be string or numbers</t>
         </r>
       </text>
     </comment>
@@ -134,11 +134,14 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Distname and dist_param1, .. only for monte carlo sensitivities. Order of distribution parameters is predefined: 
-normal(mean, std dev,min, max) – where min/max is optional and will give truncated gaussian
-lognormal(mean, stddev, min, max) – where min/max is optional and will give truncated lognormal
-uniform(from,to)loguniform(from, to)triangular(low, mode, high)
-discrete((value1, value2, value3,..,value_n) (weight1, weight2, weight3,..weight_n))</t>
+          <t>Distname and dist_param1, .. only for sensitivities of type “dist”. 
+The order of distribution parameters is predefined: 
+normal(mean, std dev,min, max)     – where min/max is optional and will give truncated gaussian
+lognormal(mean, stddev) 
+uniform(from,to)
+loguniform(from, to)
+triangular(low, mode, high)
+discrete((value1, value2, value3,..,value_n) (weight1, weight2, weight3,..weight_n)). Discrete uniform if no weights are given</t>
         </r>
       </text>
     </comment>
@@ -172,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>designtype</t>
   </si>
@@ -207,13 +210,13 @@
     <t>param_name</t>
   </si>
   <si>
-    <t>senscase1</t>
+    <t>casename1</t>
   </si>
   <si>
     <t>value1</t>
   </si>
   <si>
-    <t>senscase2</t>
+    <t>casename2</t>
   </si>
   <si>
     <t>value2</t>
@@ -243,88 +246,91 @@
     <t>extern_file</t>
   </si>
   <si>
+    <t>rms_seed</t>
+  </si>
+  <si>
     <t>seed</t>
   </si>
   <si>
+    <t>faults</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>FAULT_POSITION</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>velmodel</t>
+  </si>
+  <si>
+    <t>DC_MODEL</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>OWC1</t>
+  </si>
+  <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>OWC2</t>
+  </si>
+  <si>
+    <t>OWC3</t>
+  </si>
+  <si>
+    <t>multz</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>MULTZ_ILE</t>
+  </si>
+  <si>
+    <t>logunif</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>default_value</t>
+  </si>
+  <si>
     <t>RMS_SEED</t>
   </si>
   <si>
-    <t>faults</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>fault_position</t>
-  </si>
-  <si>
-    <t>east</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>velmodel</t>
-  </si>
-  <si>
-    <t>dc_model</t>
-  </si>
-  <si>
-    <t>alternative</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>owc1</t>
-  </si>
-  <si>
-    <t>shallow</t>
-  </si>
-  <si>
-    <t>deep</t>
-  </si>
-  <si>
-    <t>owc2</t>
-  </si>
-  <si>
-    <t>owc3</t>
-  </si>
-  <si>
-    <t>multz</t>
-  </si>
-  <si>
-    <t>dist</t>
-  </si>
-  <si>
-    <t>multz_ile</t>
-  </si>
-  <si>
-    <t>logunif</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>default_value</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
-    <t>param1</t>
-  </si>
-  <si>
-    <t>param2</t>
+    <t>PARAM1</t>
+  </si>
+  <si>
+    <t>PARAM2</t>
   </si>
   <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>param3</t>
-  </si>
-  <si>
-    <t>param4</t>
+    <t>PARAM3</t>
+  </si>
+  <si>
+    <t>PARAM4</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1014,7 +1020,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1070,7 +1076,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1412,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q35" activeCellId="0" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1421,7 +1427,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8520408163265"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1887755102041"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.8622448979592"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.8469387755102"/>
@@ -1494,11 +1500,9 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="21"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -1703,8 +1707,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1724,7 +1728,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="109" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1000</v>
@@ -1743,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +1784,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -1788,15 +1792,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
@@ -1804,7 +1808,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>

--- a/tests/data/sensitivities/config/design_input_example1.xlsx
+++ b/tests/data/sensitivities/config/design_input_example1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -210,13 +210,13 @@
     <t>param_name</t>
   </si>
   <si>
-    <t>casename1</t>
+    <t>senscase1</t>
   </si>
   <si>
     <t>value1</t>
   </si>
   <si>
-    <t>casename2</t>
+    <t>senscase2</t>
   </si>
   <si>
     <t>value2</t>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q35" activeCellId="0" sqref="Q35"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/tests/data/sensitivities/config/design_input_example1.xlsx
+++ b/tests/data/sensitivities/config/design_input_example1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,68 +23,16 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Specifies that this is a setup for a onebyone design</t>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Number of repeated seeds per sensitivity/sensitivity case. 
-This is overrided if number of realisations is specified in the numreal column in designinput.</t>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alternatives:
-- default gives seed numbers 1000, 1001, 1002, 1003,---
-- None (seed number is not added as parameter in spreadsheet) 
-- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alternatives:
-- None
-- name of sheet in this workbook with background parameters
-- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
-Path is relative to where script is run from</t>
-        </r>
-      </text>
+      <text/>
     </comment>
   </commentList>
 </comments>
@@ -97,53 +45,13 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>numreal = repeats if not specified in table</t>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>For scenario sensitivities provide names for case1 and case2 and values. Values can be string or numbers</t>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Distname and dist_param1, .. only for sensitivities of type “dist”. 
-The order of distribution parameters is predefined: 
-normal(mean, std dev,min, max)     – where min/max is optional and will give truncated gaussian
-lognormal(mean, stddev) 
-uniform(from,to)
-loguniform(from, to)
-triangular(low, mode, high)
-discrete((value1, value2, value3,..,value_n) (weight1, weight2, weight3,..weight_n)). Discrete uniform if no weights are given</t>
-        </r>
-      </text>
+      <text/>
     </comment>
   </commentList>
 </comments>
@@ -156,19 +64,7 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Default values are used both as default, i.e. (sent to design matrix default_values spreadsheet)  and as base case value for single sensitivities.
-Values can be strings or numbers</t>
-        </r>
-      </text>
+      <text/>
     </comment>
   </commentList>
 </comments>
@@ -340,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,13 +264,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1354,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="7:7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,13 +1290,12 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1418,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="7:7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1690,13 +1578,12 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1707,13 +1594,13 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1887755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.4285714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.72959183673469"/>
   </cols>
@@ -1816,12 +1703,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/data/sensitivities/config/design_input_example1.xlsx
+++ b/tests/data/sensitivities/config/design_input_example1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,16 +23,60 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="B2" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="B3" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="B4" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -45,13 +89,46 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="E1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="I1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -64,7 +141,18 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> </t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -1244,7 +1332,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="7:7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1296,6 +1384,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1306,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="7:7 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1584,6 +1673,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1594,8 +1684,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,5 +1799,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>